--- a/biology/Botanique/Bourgogne-mousseux/Bourgogne-mousseux.xlsx
+++ b/biology/Botanique/Bourgogne-mousseux/Bourgogne-mousseux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bourgogne-mousseux[2] est un vin effervescent rouge d'appellation d'origine contrôlée produit dans les départements de l'Yonne, de la Côte-d'Or, de Saône-et-Loire et du Rhône.
+Le bourgogne-mousseux est un vin effervescent rouge d'appellation d'origine contrôlée produit dans les départements de l'Yonne, de la Côte-d'Or, de Saône-et-Loire et du Rhône.
 Il s'agit d'une AOC régionale, elle est donc commune à tout le vignoble de Bourgogne
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est au début du XIXe siècle que des négociants en vin et des producteurs  de Bourgogne s'intéressent à l’élaboration de vins mousseux. Les deux principaux artisans de cette création sont Joseph-Jules Lausseure (à Nuits-Saint-Georges) et  François-Basile Hubert, à Chalon-sur-Saône[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est au début du XIXe siècle que des négociants en vin et des producteurs  de Bourgogne s'intéressent à l’élaboration de vins mousseux. Les deux principaux artisans de cette création sont Joseph-Jules Lausseure (à Nuits-Saint-Georges) et  François-Basile Hubert, à Chalon-sur-Saône.
 En 1939 les producteurs de vins mousseux se regroupent au sein d’un syndicat et obtiennent, en 1943, la reconnaissance de l’appellation d’origine contrôlée "Bourgogne mousseux". Le décret donne cette  appellation d’origine contrôlée aux vins blancs, rouges et rosés produits par seconde fermentation en bouteille.
-À partir des années 1960 les producteurs souhaitent promouvoir  des vins mousseux de qualité. Règles et méthodes mises en place  aboutissent à la reconnaissance de l’appellation d’origine contrôlée "crémant de Bourgogne", par le décret de 1975, pour les vins blancs ou rosés. La conséquence est qu'à partir du 31 décembre  1985, l’appellation d’origine contrôlée "Bourgogne mousseux" est réservée aux seuls vins rouges[4].
+À partir des années 1960 les producteurs souhaitent promouvoir  des vins mousseux de qualité. Règles et méthodes mises en place  aboutissent à la reconnaissance de l’appellation d’origine contrôlée "crémant de Bourgogne", par le décret de 1975, pour les vins blancs ou rosés. La conséquence est qu'à partir du 31 décembre  1985, l’appellation d’origine contrôlée "Bourgogne mousseux" est réservée aux seuls vins rouges.
 La production de "Bourgogne-mousseux" devient alors très faible.
 En 1975, un nouveau décret homologue l'appellation d'origine contrôlée "Crémant de Bourgogne". Cette nouvelle appellation va remplacer le Bourgogne mousseux pour les vins blancs et rosés effervescents bourguignons. On conservera toutefois l'appellation Bourgogne mousseux pour les vins rouges de Bourgogne. 
 Aujourd'hui une douzaine d'élaborateurs revendiquent l'appellation Bourgogne mousseux. 
@@ -549,14 +563,11 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone géographique repose sur les reliefs traditionnellement voués à la viticulture des départements de l’Yonne, de la Côte-d’Or, de Saône-et-Loire et du Rhône. Elle regroupe un ensemble de vignobles, plus ou moins disjoints, qui s'étale sur environ 250 kilomètres, du nord au sud. Elle s’étend ainsi sur le territoire de plus de 300 communes. 
-Orographie
-Géologie
-Le vignoble de Bourgogne est généralement argilo-calcaire.
-Climatologie
-Le climat continental du vignoble subit par le sud les influences de la Méditerranée, et par l’ouest celles de l’Atlantique.
 </t>
         </is>
       </c>
@@ -582,22 +593,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
+          <t>Situation géographique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Présentation
-.Le vignoble s'étend sur les départements de l'Yonne (54 communes) , la Côte-d'Or (91 communes), la Saône-et-Loire(154 communes) et le Rhône (85 communes)[5]. C'est un vin effervescent.  
-Encépagement
-Les vins sont issus des cépages gamay N, pinot noir N et, pour le seul département de l’Yonne, le cépage césar N ; les cépages accessoires sont aligoté B, chardonnay B, gamay de Bouze N, gamay de Chaudenay N, melon B, pinot blanc B, pinot gris.
-Méthodes
-Les vins sont exclusivement élaborés par seconde fermentation en bouteilles de verre. Le tirage en bouteilles dans lesquelles s’effectue la prise de mousse est réalisé à partir du 1er décembre qui suit la récolte. La durée de conservation en bouteilles sur lies ne peut être inférieure à 9 mois.
-Terroir et vins
-Structure des exploitations
-Type de vins et gastronomie
-Commercialisation
-Le Bourgogne mousseux représente une production faible à la différence de l'appellation Crémant de Bourgogne, puisqu'elle représente moins de 100 000 bouteilles par année.</t>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de Bourgogne est généralement argilo-calcaire.
+</t>
         </is>
       </c>
     </row>
@@ -622,10 +630,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat continental du vignoble subit par le sud les influences de la Méditerranée, et par l’ouest celles de l’Atlantique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">.Le vignoble s'étend sur les départements de l'Yonne (54 communes) , la Côte-d'Or (91 communes), la Saône-et-Loire(154 communes) et le Rhône (85 communes). C'est un vin effervescent.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins sont issus des cépages gamay N, pinot noir N et, pour le seul département de l’Yonne, le cépage césar N ; les cépages accessoires sont aligoté B, chardonnay B, gamay de Bouze N, gamay de Chaudenay N, melon B, pinot blanc B, pinot gris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Méthodes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins sont exclusivement élaborés par seconde fermentation en bouteilles de verre. Le tirage en bouteilles dans lesquelles s’effectue la prise de mousse est réalisé à partir du 1er décembre qui suit la récolte. La durée de conservation en bouteilles sur lies ne peut être inférieure à 9 mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le Bourgogne mousseux représente une production faible à la différence de l'appellation Crémant de Bourgogne, puisqu'elle représente moins de 100 000 bouteilles par année.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourgogne-mousseux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
